--- a/backend/commands/management/commands/Languages.xlsx
+++ b/backend/commands/management/commands/Languages.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\emira\OneDrive\Masaüstü\WORK\Mentor\MentorApp\backend\utils\import\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\emira\OneDrive\Masaüstü\WORK\Mentor\MentorApp\backend\commands\management\commands\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF8586A1-F283-4A5D-92FF-5B5F9C40B076}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95CD9518-7BDE-4EAF-976A-4E5BCE569EA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>LanguageId</t>
   </si>
@@ -33,10 +33,19 @@
     <t>LanguageName</t>
   </si>
   <si>
-    <t>Turkish</t>
-  </si>
-  <si>
     <t>English</t>
+  </si>
+  <si>
+    <t>LanguageCode</t>
+  </si>
+  <si>
+    <t>Türkçe</t>
+  </si>
+  <si>
+    <t>en-US</t>
+  </si>
+  <si>
+    <t>tr-TR</t>
   </si>
 </sst>
 </file>
@@ -354,40 +363,50 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.6640625" customWidth="1"/>
+    <col min="3" max="3" width="14.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
+        <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>2</v>
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
